--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2698323.444447596</v>
+        <v>2694842.724608501</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791237</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7846265.987988032</v>
+        <v>7842726.11164552</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>345.5024645099646</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -677,7 +677,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>18.04911256630642</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>74.86702424530634</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159196</v>
       </c>
       <c r="C4" t="n">
-        <v>105.1499684380554</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>153.5098462186301</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779358</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>44.00931264611557</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794641</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>117.7534920891835</v>
+        <v>214.0175430895177</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>15.15025942589171</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>72.30123682227985</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>74.07584602384512</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
         <v>42.96247126414337</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
@@ -1433,7 +1433,7 @@
         <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
-        <v>171.0187943537003</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
         <v>298.5345275142885</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173251</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>286.3751174504516</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
@@ -1667,13 +1667,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386983</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799144</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190363</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412923</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.482250613592</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875266</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277539</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059294</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541622</v>
+        <v>122.8352329541628</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879322</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006892</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730203</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880371</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908612</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092585</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380496</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357222</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596436</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125364</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708333</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369157</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249335</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325496</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792622</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593852</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386983</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799144</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190363</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412923</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135897</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875266</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277539</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059294</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541628</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879322</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006892</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730203</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880371</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908612</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092585</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380496</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357222</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596436</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125364</v>
       </c>
       <c r="I25" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708333</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369157</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249335</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325496</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792622</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593852</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414246</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404351</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303129</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453483</v>
+        <v>20.92391191189583</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443495</v>
+        <v>48.81858568179595</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622525</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495918</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548314</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897098</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046327</v>
+        <v>67.32610467782428</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074568</v>
+        <v>52.47323292810668</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258541</v>
+        <v>38.04694813994641</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546452</v>
+        <v>37.97339019282552</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523179</v>
+        <v>39.72284161259279</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762392</v>
+        <v>50.54167953498492</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419596</v>
+        <v>37.89393170155697</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536789</v>
+        <v>15.7336472827289</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982381</v>
+        <v>6.632145647184814</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535113</v>
+        <v>84.75808915271213</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865931</v>
+        <v>166.5545700139541</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.28971790082</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.4672642215702</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175981</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658109</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253649</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840508</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118666</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252669</v>
+        <v>1.09831080392087</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643888</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150899</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866448</v>
+        <v>312.5642884866451</v>
       </c>
       <c r="H41" t="n">
-        <v>67.06582081829669</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822803</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812815</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459454</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995153</v>
+        <v>156.7283627995156</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111634</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460417</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183728</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415622</v>
+        <v>86.88909903415647</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443862</v>
+        <v>72.03622728443888</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627835</v>
+        <v>57.60994249627861</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915746</v>
+        <v>57.53638454915772</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892473</v>
+        <v>59.28583596892499</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131686</v>
+        <v>70.10467389131712</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788891</v>
+        <v>57.45692605788916</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906084</v>
+        <v>35.29664163906109</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351676</v>
+        <v>26.19514000351701</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090441</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432162</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U43" t="n">
-        <v>186.117564370286</v>
+        <v>186.1175643702863</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571519</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779021</v>
+        <v>184.0302585779024</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246147</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.414101101291</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840509</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118667</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252669</v>
+        <v>41.58521707214864</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>316.25865461509</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
-        <v>311.9830916455142</v>
+        <v>312.5642884866451</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589422</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812815</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459455</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995156</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111634</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460417</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415626</v>
+        <v>86.88909903415647</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443867</v>
+        <v>72.03622728443888</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627839</v>
+        <v>57.60994249627861</v>
       </c>
       <c r="E46" t="n">
-        <v>57.5363845491575</v>
+        <v>57.53638454915772</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892477</v>
+        <v>59.28583596892499</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131691</v>
+        <v>70.10467389131712</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788895</v>
+        <v>57.45692605788916</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906088</v>
+        <v>35.29664163906109</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.1951400035168</v>
+        <v>26.19514000351701</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090441</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432162</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702863</v>
       </c>
       <c r="V46" t="n">
-        <v>166.852712257152</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779021</v>
+        <v>184.0302585779024</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246147</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012911</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2086.544013137462</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>2086.544013137462</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>1737.551624743558</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>1334.968099860102</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>918.0736613900801</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>504.9109058780833</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>46.56170315639594</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733287</v>
+        <v>405.5440591838578</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>898.8643509023866</v>
       </c>
       <c r="M2" t="n">
-        <v>1565.266048587713</v>
+        <v>898.8643509023866</v>
       </c>
       <c r="N2" t="n">
-        <v>1565.266048587713</v>
+        <v>1400.031133897837</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.50387457947</v>
+        <v>1840.070734790166</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790166</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137462</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="S2" t="n">
-        <v>2086.544013137462</v>
+        <v>1820.409826157687</v>
       </c>
       <c r="T2" t="n">
-        <v>2086.544013137462</v>
+        <v>1596.909223717103</v>
       </c>
       <c r="U2" t="n">
-        <v>2086.544013137462</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="V2" t="n">
-        <v>2086.544013137462</v>
+        <v>999.0496848552206</v>
       </c>
       <c r="W2" t="n">
-        <v>2086.544013137462</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>2086.544013137462</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>2086.544013137462</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163348</v>
+        <v>657.743077536471</v>
       </c>
       <c r="C3" t="n">
-        <v>454.913144576427</v>
+        <v>507.0888470965632</v>
       </c>
       <c r="D3" t="n">
-        <v>454.913144576427</v>
+        <v>376.9998797180435</v>
       </c>
       <c r="E3" t="n">
-        <v>318.4666536873148</v>
+        <v>240.5533888289312</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>116.121582712063</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512721</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M3" t="n">
-        <v>958.9109527173059</v>
+        <v>861.4042549562996</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896707</v>
+        <v>883.7630516643756</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580652</v>
+        <v>1384.929834659826</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376224</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649873</v>
+        <v>1866.068574729048</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848781</v>
+        <v>1689.084762927956</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527423</v>
+        <v>1479.021619606598</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.10224989849</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031777</v>
+        <v>1026.364372110952</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817889</v>
+        <v>837.0572944609637</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572962</v>
+        <v>657.743077536471</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>617.2206878937177</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>511.0085985623486</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="D4" t="n">
-        <v>355.3754854648633</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="E4" t="n">
-        <v>199.8166733240658</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>617.2206878937177</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>617.2206878937177</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>617.2206878937177</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>617.2206878937177</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>617.2206878937177</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>617.2206878937177</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>617.2206878937177</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.44562773295</v>
+        <v>551.2091433733622</v>
       </c>
       <c r="C5" t="n">
-        <v>614.44562773295</v>
+        <v>551.2091433733622</v>
       </c>
       <c r="D5" t="n">
-        <v>614.44562773295</v>
+        <v>551.2091433733622</v>
       </c>
       <c r="E5" t="n">
-        <v>614.44562773295</v>
+        <v>551.2091433733622</v>
       </c>
       <c r="F5" t="n">
-        <v>197.5511892629278</v>
+        <v>538.355108943744</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703879</v>
+        <v>125.1923534317471</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733287</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>1065.680985183614</v>
+        <v>1051.843641766316</v>
       </c>
       <c r="N5" t="n">
-        <v>1591.50387457947</v>
+        <v>1051.843641766316</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.50387457947</v>
+        <v>1491.883242658644</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790166</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.53692685194</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.53692685194</v>
+        <v>1820.409826157687</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.53692685194</v>
+        <v>1596.909223717103</v>
       </c>
       <c r="U5" t="n">
-        <v>2124.53692685194</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="V5" t="n">
-        <v>1782.430117555458</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="W5" t="n">
-        <v>1411.431082523746</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="X5" t="n">
-        <v>1411.431082523746</v>
+        <v>951.703889084759</v>
       </c>
       <c r="Y5" t="n">
-        <v>1014.940373444347</v>
+        <v>951.703889084759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.5673750163348</v>
+        <v>736.0639889622228</v>
       </c>
       <c r="C6" t="n">
-        <v>561.1135238586423</v>
+        <v>585.409758522315</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437953</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>318.874300254683</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>194.4424941378148</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>74.38267620967927</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512721</v>
+        <v>74.38267620967927</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>155.6057207567662</v>
+        <v>473.3524541805761</v>
       </c>
       <c r="L6" t="n">
-        <v>155.6057207567662</v>
+        <v>521.4159459447619</v>
       </c>
       <c r="M6" t="n">
-        <v>442.2072945938156</v>
+        <v>1022.582728940213</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896707</v>
+        <v>1523.749511935664</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580652</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297049</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649873</v>
+        <v>1866.068574729048</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848781</v>
+        <v>1689.084762927956</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527423</v>
+        <v>1479.021619606598</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.10224989849</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031777</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817889</v>
+        <v>1067.174540327677</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3637094572962</v>
+        <v>887.8603234031841</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="C7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="D7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="E7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="F7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="G7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="H7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>622.178755958935</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="U7" t="n">
-        <v>622.178755958935</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="V7" t="n">
-        <v>356.1994107797592</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="W7" t="n">
-        <v>72.86900871093684</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="X7" t="n">
-        <v>72.86900871093684</v>
+        <v>225.7063445899236</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.86900871093684</v>
+        <v>225.7063445899236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1819.035227007271</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1819.035227007271</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>1433.594098223939</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>1031.010573340483</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>614.1161348704612</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>200.9533793584644</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1819.035227007271</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1819.035227007271</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1819.035227007271</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>140.0776713099957</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>120.3445224472808</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1642.069506034397</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1343.834685824516</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1053.334238328372</v>
+        <v>731.4357765463907</v>
       </c>
       <c r="E11" t="n">
-        <v>745.6913947321052</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>423.7376375492713</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
-        <v>105.5155633244624</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
         <v>105.5155633244624</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.823590280621</v>
       </c>
       <c r="U11" t="n">
-        <v>2945.144336927563</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.97820891827</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2421.919855173746</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2249.173598250816</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1947.623570458606</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
         <v>1458.313011372373</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669550995</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082774</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443715</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445328</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757663</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R13" t="n">
-        <v>1649.242993404582</v>
+        <v>1649.242993404581</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329741</v>
       </c>
       <c r="U13" t="n">
         <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966843</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852093</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553807</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592124</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1520.303839177572</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1222.069018967691</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>931.5685714715469</v>
+        <v>745.691394732105</v>
       </c>
       <c r="E14" t="n">
-        <v>623.9257278752798</v>
+        <v>745.691394732105</v>
       </c>
       <c r="F14" t="n">
-        <v>334.6579324707834</v>
+        <v>423.737637549271</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2945.144336927563</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.97820891827</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2421.919855173745</v>
+        <v>2221.787060248589</v>
       </c>
       <c r="X14" t="n">
-        <v>2127.407931393991</v>
+        <v>1927.275136468834</v>
       </c>
       <c r="Y14" t="n">
-        <v>1825.85790360178</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5413,19 +5413,19 @@
         <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979811</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
         <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311671</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5443,7 +5443,7 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5452,7 +5452,7 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5467,7 +5467,7 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414175</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.889542297544</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099307</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K17" t="n">
         <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840154</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
         <v>175.2341099238429</v>
@@ -5598,19 +5598,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843828</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072231</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599518</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498594</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975472</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099334</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803453</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924206</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5774,19 +5774,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188069</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224692</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443167</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>802.5350401618138</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885582</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369561</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218794</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634906</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588722</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072636</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462898</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
@@ -5920,40 +5920,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655151</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296516</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476278</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476278</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341236</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918785</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.258445116188</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194209</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330071</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856983988</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974508</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599517</v>
@@ -5972,40 +5972,40 @@
         <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975461</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099325</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803443</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924273</v>
+        <v>68.77950792924204</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411597</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6014,25 +6014,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1319.055322752795</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885582</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369561</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218794</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634906</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588722</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072636</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462898</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291068</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390486</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128484</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511124</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655151</v>
+        <v>812.1990332879402</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296482</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106227</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476278</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476278</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341236</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918785</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161907</v>
+        <v>769.258445116188</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194209</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330071</v>
       </c>
       <c r="X25" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856983988</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974508</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6227,19 +6227,19 @@
         <v>311.0659935859516</v>
       </c>
       <c r="K26" t="n">
-        <v>700.017864895835</v>
+        <v>763.0997113429867</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343937</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118091</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755553</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508977</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M27" t="n">
         <v>1235.193651060917</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985346</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
@@ -6385,13 +6385,13 @@
         <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.707882522574</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904114</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286444</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="29">
@@ -6446,40 +6446,40 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218595</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390256</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142171</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.7612945678962</v>
       </c>
       <c r="I29" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662619</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.428440379499</v>
@@ -6494,7 +6494,7 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
         <v>3060.13197616485</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879677</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746016</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
         <v>111.518603023284</v>
@@ -6619,16 +6619,16 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796858</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192009</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.707882522574</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904114</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600043</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144918</v>
+        <v>890.220166667434</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423735</v>
+        <v>590.5275805474764</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267659</v>
+        <v>87.68547930209947</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462893</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6829079322592</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>707.1820800376897</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1200.502371756219</v>
+        <v>1165.756364896307</v>
       </c>
       <c r="M32" t="n">
-        <v>1746.503271800799</v>
+        <v>1711.757264940888</v>
       </c>
       <c r="N32" t="n">
-        <v>2274.314555438261</v>
+        <v>2239.56854857835</v>
       </c>
       <c r="O32" t="n">
-        <v>2714.35415633059</v>
+        <v>2794.477684958976</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102498</v>
+        <v>3142.665177090498</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243446</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491226</v>
+        <v>3278.199034522562</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448547</v>
+        <v>3171.900284432043</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.349407216707</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382472</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748663</v>
+        <v>2554.647267588642</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079624</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.10765814243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462893</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304544</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>388.2817734452719</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>871.8478593435851</v>
+        <v>663.2312828626696</v>
       </c>
       <c r="M33" t="n">
-        <v>871.8478593435851</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590204</v>
+        <v>341.6872565554796</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229136</v>
+        <v>288.6839909715335</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233324</v>
+        <v>250.2527302241129</v>
       </c>
       <c r="E34" t="n">
-        <v>239.922374880439</v>
+        <v>211.89577043338</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913159</v>
+        <v>171.7716879964176</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886655</v>
+        <v>120.7194864459278</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806352</v>
+        <v>82.4427877574864</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462893</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462893</v>
       </c>
       <c r="K34" t="n">
-        <v>258.868176133373</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>531.4863236475585</v>
+        <v>427.382431216669</v>
       </c>
       <c r="M34" t="n">
-        <v>826.2684096262083</v>
+        <v>728.5435450432313</v>
       </c>
       <c r="N34" t="n">
-        <v>1009.458043657417</v>
+        <v>911.7331790744406</v>
       </c>
       <c r="O34" t="n">
-        <v>1280.653318339511</v>
+        <v>1189.307481604447</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022245</v>
+        <v>1323.033455149259</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392296</v>
+        <v>1326.455651519309</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422777</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.25436700323</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569368</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209173</v>
+        <v>947.3881441448294</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279015</v>
+        <v>798.6106513157183</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569831</v>
+        <v>632.4821015969605</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378702</v>
+        <v>515.6036317300083</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524176</v>
+        <v>409.6934228967162</v>
       </c>
     </row>
     <row r="35">
@@ -6920,7 +6920,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
         <v>542.6718405099314</v>
@@ -6929,58 +6929,58 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924216</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
         <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -6999,10 +6999,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
         <v>199.803798091603</v>
@@ -7011,16 +7011,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
         <v>568.1699486069232</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072659</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462909</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222421</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878571</v>
+        <v>313.6614512960418</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634304</v>
+        <v>499.9530296343059</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879418</v>
+        <v>683.1426636655151</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924213</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7196,28 +7196,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7236,10 +7236,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
         <v>199.803798091603</v>
@@ -7248,25 +7248,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.8582737663419</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>1493.196009291336</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
-        <v>1493.196009291336</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072653</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462906</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878571</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261211</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918796</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1653.91347025114</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C41" t="n">
-        <v>1358.179220744204</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1070.179343951005</v>
+        <v>1043.331955516593</v>
       </c>
       <c r="E41" t="n">
-        <v>765.0370710576829</v>
+        <v>738.1896826232703</v>
       </c>
       <c r="F41" t="n">
-        <v>445.5838845777939</v>
+        <v>418.7364961433813</v>
       </c>
       <c r="G41" t="n">
-        <v>129.8623810559304</v>
+        <v>103.0149926215176</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411552</v>
+        <v>103.0149926215176</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
         <v>1605.072448403515</v>
@@ -7427,7 +7427,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.897034755326</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2821.585557180058</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2821.585557180058</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2548.027774138479</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2256.016421061669</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1956.966963972403</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.580372034485</v>
+        <v>475.5803720344868</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906076</v>
+        <v>402.8165060906092</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832557</v>
+        <v>344.624644983257</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325917</v>
+        <v>286.5070848325927</v>
       </c>
       <c r="F43" t="n">
-        <v>226.622402035698</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252769</v>
+        <v>155.8096001252774</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690426</v>
+        <v>97.77230107690451</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822078</v>
+        <v>68.23195016744154</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676793</v>
+        <v>245.5691623529129</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170088</v>
+        <v>505.1989733022421</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308026</v>
+        <v>786.9927227160356</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.300133837542</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954779</v>
+        <v>1323.891465940012</v>
       </c>
       <c r="P43" t="n">
-        <v>1598.885408806888</v>
+        <v>1539.26980279212</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237696</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860407</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033089</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191457</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423491</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234449</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557597</v>
+        <v>825.6570181557622</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288762</v>
+        <v>689.0179479288785</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356529</v>
+        <v>563.347138735655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1812.224947826408</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1516.490698319471</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1228.490821526273</v>
+        <v>1002.436090599191</v>
       </c>
       <c r="E44" t="n">
-        <v>923.3485486329507</v>
+        <v>697.2938177058684</v>
       </c>
       <c r="F44" t="n">
-        <v>603.8953621530618</v>
+        <v>377.8406312259792</v>
       </c>
       <c r="G44" t="n">
-        <v>288.7609261474915</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
         <v>1605.072448403515</v>
@@ -7664,7 +7664,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.897034755326</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2979.897034755326</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2979.897034755326</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2706.339251713747</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2414.327898636937</v>
+        <v>1942.278560686503</v>
       </c>
       <c r="Y44" t="n">
-        <v>2115.278441547671</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344853</v>
+        <v>475.5803720344868</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906078</v>
+        <v>402.8165060906092</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832559</v>
+        <v>344.624644983257</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325918</v>
+        <v>286.5070848325927</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356981</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G46" t="n">
-        <v>155.809600125277</v>
+        <v>155.8096001252774</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690428</v>
+        <v>97.77230107690451</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676793</v>
+        <v>305.1847683676789</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170088</v>
+        <v>564.8145793170081</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308024</v>
+        <v>846.6083287308015</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954779</v>
+        <v>1323.891465940012</v>
       </c>
       <c r="P46" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.26980279212</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237697</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860407</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.35960103309</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191457</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423492</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234449</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557601</v>
+        <v>825.6570181557622</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288765</v>
+        <v>689.0179479288785</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356533</v>
+        <v>563.347138735655</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>123.8044614350467</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,16 +7985,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107123</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>655.3475650705627</v>
       </c>
       <c r="O2" t="n">
-        <v>176.0666919612245</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>598.6161957820905</v>
       </c>
       <c r="N3" t="n">
-        <v>94.58345757372706</v>
+        <v>107.9567559936373</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216675</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8222,13 +8222,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>176.2279061348554</v>
+        <v>164.2633295905297</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507691</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>138.6093284369039</v>
       </c>
       <c r="M6" t="n">
-        <v>381.8836612786548</v>
+        <v>598.6161957820905</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671516</v>
+        <v>591.6011865869452</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216675</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>556.6502691852513</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>183.2986537257091</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,10 +8541,10 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>586.5539326316472</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8775,10 +8775,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N12" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,22 +9246,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>345.5977578821526</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>514.986373519011</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,13 +9717,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>550.6002160777358</v>
+        <v>636.8366347720143</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,13 +9954,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366735</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095476</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,7 +10671,7 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>280.580732999394</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10899,25 +10899,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>262.5710112738847</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,22 +11373,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364593</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>120.5480101882569</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385738</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
-        <v>32.35910216055391</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-2.250999386887998e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213463</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>157.3095596406455</v>
+        <v>224.3753804589425</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822777</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812789</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332847</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531185</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5811968411306907</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589425</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822781</v>
+        <v>40.48690626822803</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812794</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995154</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332848</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>677437.4002270685</v>
+        <v>675632.7573857876</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>677437.4002270685</v>
+        <v>675632.7573857876</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>690555.1634703533</v>
+        <v>690555.1634703537</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>690555.1634703535</v>
+        <v>690555.1634703533</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656157.0259903054</v>
+        <v>656157.025990305</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656157.0259903052</v>
+        <v>656157.025990305</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649195.8411360841</v>
+        <v>649195.8411360845</v>
       </c>
       <c r="C2" t="n">
         <v>649195.8411360844</v>
@@ -26320,40 +26320,40 @@
         <v>649195.8411360842</v>
       </c>
       <c r="E2" t="n">
-        <v>610114.0416596583</v>
+        <v>610114.0416596584</v>
       </c>
       <c r="F2" t="n">
-        <v>610114.0416596587</v>
+        <v>610114.0416596585</v>
       </c>
       <c r="G2" t="n">
         <v>649195.8411360859</v>
       </c>
       <c r="H2" t="n">
-        <v>649195.8411360857</v>
+        <v>649195.8411360859</v>
       </c>
       <c r="I2" t="n">
-        <v>649195.8411360862</v>
+        <v>649195.8411360859</v>
       </c>
       <c r="J2" t="n">
-        <v>649195.8411360853</v>
+        <v>649195.8411360852</v>
       </c>
       <c r="K2" t="n">
-        <v>649195.8411360851</v>
+        <v>649195.8411360852</v>
       </c>
       <c r="L2" t="n">
-        <v>649195.8411360856</v>
+        <v>649195.8411360863</v>
       </c>
       <c r="M2" t="n">
         <v>649195.8411360858</v>
       </c>
       <c r="N2" t="n">
-        <v>649195.8411360858</v>
+        <v>649195.8411360856</v>
       </c>
       <c r="O2" t="n">
-        <v>612774.2838042685</v>
+        <v>612774.2838042681</v>
       </c>
       <c r="P2" t="n">
-        <v>612774.2838042685</v>
+        <v>612774.2838042679</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.00587655</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602661</v>
+        <v>26460.41160941811</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301448</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670111</v>
+        <v>46725.80335481238</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436854</v>
+        <v>43782.97194555679</v>
       </c>
       <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015692</v>
+        <v>18983.55983015663</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234899.5431980371</v>
+        <v>239807.0746329793</v>
       </c>
       <c r="C4" t="n">
-        <v>234899.5431980371</v>
+        <v>239807.0746329794</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26430,13 +26430,13 @@
         <v>174664.8493247784</v>
       </c>
       <c r="G4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="H4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682604</v>
       </c>
       <c r="I4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682604</v>
       </c>
       <c r="J4" t="n">
         <v>200019.6624326434</v>
@@ -26445,19 +26445,19 @@
         <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199696.8077779822</v>
+        <v>199563.4131689275</v>
       </c>
       <c r="M4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
       <c r="N4" t="n">
         <v>199269.1699682603</v>
       </c>
       <c r="O4" t="n">
-        <v>176339.4652237698</v>
+        <v>176339.4652237697</v>
       </c>
       <c r="P4" t="n">
-        <v>176339.4652237698</v>
+        <v>176339.4652237697</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551965</v>
+      </c>
+      <c r="H5" t="n">
         <v>58169.76931551967</v>
       </c>
-      <c r="H5" t="n">
-        <v>58169.76931551966</v>
-      </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446765</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255071</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170380.4395155468</v>
+        <v>175333.4329436023</v>
       </c>
       <c r="C6" t="n">
-        <v>348375.7366498978</v>
+        <v>344982.4388201521</v>
       </c>
       <c r="D6" t="n">
-        <v>337864.4049212169</v>
+        <v>330128.1156978254</v>
       </c>
       <c r="E6" t="n">
-        <v>249883.9716882587</v>
+        <v>249775.4111341576</v>
       </c>
       <c r="F6" t="n">
-        <v>380336.9028259712</v>
+        <v>380228.3422718699</v>
       </c>
       <c r="G6" t="n">
         <v>362661.9459792915</v>
       </c>
       <c r="H6" t="n">
-        <v>391756.901852306</v>
+        <v>391756.9018523057</v>
       </c>
       <c r="I6" t="n">
-        <v>391756.9018523063</v>
+        <v>391756.9018523059</v>
       </c>
       <c r="J6" t="n">
-        <v>163671.2585025559</v>
+        <v>170187.543657129</v>
       </c>
       <c r="K6" t="n">
-        <v>385517.1334495221</v>
+        <v>385517.1334495223</v>
       </c>
       <c r="L6" t="n">
-        <v>346622.7865169346</v>
+        <v>342573.949306463</v>
       </c>
       <c r="M6" t="n">
-        <v>349025.6249179373</v>
+        <v>347973.9299067491</v>
       </c>
       <c r="N6" t="n">
-        <v>391756.9018523058</v>
+        <v>391756.9018523056</v>
       </c>
       <c r="O6" t="n">
-        <v>362130.8509677909</v>
+        <v>362029.6799752027</v>
       </c>
       <c r="P6" t="n">
-        <v>381114.4107979479</v>
+        <v>381013.239805359</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="J2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
+        <v>130.3599693155843</v>
+      </c>
+      <c r="N2" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N2" t="n">
-        <v>130.3599693155845</v>
-      </c>
       <c r="O2" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="P2" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="C4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,13 +26802,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443781</v>
@@ -26817,19 +26817,19 @@
         <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>856.782842288068</v>
+        <v>831.8776843078616</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126787</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304857</v>
+        <v>57.62257963304835</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087639</v>
+        <v>58.40725419351547</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165945</v>
+        <v>14.33013548902051</v>
       </c>
       <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769615</v>
+        <v>23.72944978769578</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651647</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.705872255919</v>
+        <v>646.8007142757127</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455249</v>
+        <v>129.6883820257315</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126787</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304857</v>
+        <v>57.62257963304835</v>
       </c>
       <c r="P2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651647</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,13 +27382,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>36.08425298553436</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857364</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>105.1383754893931</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.99219550354786</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427963</v>
       </c>
       <c r="C4" t="n">
-        <v>63.35309831661527</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27625,13 +27625,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>255.5212817382468</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713806</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>105.1383754893931</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026111</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>115.6083692242647</v>
+        <v>19.34431822393046</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,25 +27853,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>305.6919605032825</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>208.1958612258543</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431658</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28758,10 +28758,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28992,40 +28992,40 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5.636002634529973</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.63600263452625</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29229,10 +29229,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.636002634529973</v>
+        <v>35.71049010668548</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155846</v>
       </c>
     </row>
     <row r="26">
@@ -29299,22 +29299,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901169</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
+        <v>30.27223765901226</v>
+      </c>
+      <c r="N26" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>93.99127447431646</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>93.99127447431646</v>
+      </c>
+      <c r="M29" t="n">
+        <v>93.99127447431646</v>
+      </c>
+      <c r="N29" t="n">
+        <v>93.99127447431646</v>
+      </c>
+      <c r="O29" t="n">
+        <v>93.99127447431646</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>30.27223765901181</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>93.99127447431647</v>
-      </c>
-      <c r="N29" t="n">
-        <v>93.99127447431647</v>
-      </c>
-      <c r="O29" t="n">
-        <v>93.99127447431647</v>
-      </c>
-      <c r="P29" t="n">
-        <v>93.99127447431647</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>93.99127447431647</v>
-      </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>26.78466270501883</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>103.2865954513729</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.586371353925</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P34" t="n">
-        <v>28.9223746526817</v>
+        <v>13.98970481639688</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,46 +30141,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.636002634529945</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634528097</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733238</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155845</v>
+        <v>5.636002634529465</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082765</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023205</v>
+        <v>36.24905561693282</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.24905561692685</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023205</v>
+        <v>96.46683947023179</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="C44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="D44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="E44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="F44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="G44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="H44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="I44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="T44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="U44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="V44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="W44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="X44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="C46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="D46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="E46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="F46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="G46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="H46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="I46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="J46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="K46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="L46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="M46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="N46" t="n">
-        <v>96.466839470232</v>
+        <v>36.24905561693288</v>
       </c>
       <c r="O46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="P46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.24905561692778</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="R46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="S46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="T46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="U46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="V46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="W46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="X46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.466839470232</v>
+        <v>96.46683947023179</v>
       </c>
     </row>
   </sheetData>
@@ -32236,25 +32236,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -32318,16 +32318,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.129524869426178e-13</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.318102246374109e-13</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.352988490699988e-13</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.237720141233448e-13</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>6.124623492700652</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,16 +34705,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.134231712985</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="O2" t="n">
-        <v>26.50285453712812</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="N3" t="n">
-        <v>9.211344719560405</v>
+        <v>22.58464313947065</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34942,13 +34942,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>26.50285453712812</v>
+        <v>14.53827799280249</v>
       </c>
       <c r="N5" t="n">
-        <v>531.134231712985</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>48.54898157998567</v>
       </c>
       <c r="M6" t="n">
-        <v>289.4965392293429</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="N6" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>407.086431761155</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>93.7017183923758</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,10 +35261,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35495,10 +35495,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N12" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P16" t="n">
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.4505918164782</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006882</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>260.2256450279861</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828092</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529102</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36054,10 +36054,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716088</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>424.9260266620927</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,16 +36288,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094888</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535427</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644678733</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>458.2130940284239</v>
+        <v>544.4495127227025</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434255</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36525,10 +36525,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094888</v>
+        <v>220.7505244816443</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36595,22 +36595,22 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907913</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36674,13 +36674,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797553</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851008</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700709</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.697253080014</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>389.3931031367985</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>601.5899204195839</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723503</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605127</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N33" t="n">
-        <v>362.145010255381</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.248029040735</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.371866175945</v>
+        <v>281.815328648584</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067169</v>
+        <v>304.2031452793559</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910039</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
-        <v>150.0094107906399</v>
+        <v>135.076740954355</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>188.1936109500821</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37464,19 +37464,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133992</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.80931408732</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>9.092766644681948</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634527716</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807297</v>
+        <v>6.174568144773749</v>
       </c>
       <c r="K43" t="n">
-        <v>179.128497157042</v>
+        <v>179.1284971570417</v>
       </c>
       <c r="L43" t="n">
-        <v>262.252334292252</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>284.640150923024</v>
+        <v>284.6401509230237</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451909</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073109</v>
+        <v>260.8150890073106</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081902</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.70581962707934</v>
+        <v>99.92360348038427</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807294</v>
+        <v>66.39235199807271</v>
       </c>
       <c r="K46" t="n">
-        <v>179.128497157042</v>
+        <v>179.1284971570417</v>
       </c>
       <c r="L46" t="n">
-        <v>262.252334292252</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>284.640150923024</v>
+        <v>284.6401509230237</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451908</v>
+        <v>221.2890899918917</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073109</v>
+        <v>260.8150890073106</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081902</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.70581962708026</v>
+        <v>99.92360348038427</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
